--- a/output/write_ganji.xlsx
+++ b/output/write_ganji.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,6 +608,1536 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2040년</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>경신년</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>백색원숭이</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2039년</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>기미년</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>황색양</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2038년</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>무오년</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>황색말</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2037년</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>정사년</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>적색뱀</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2036년</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>병진년</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>적색용</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2035년</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>을묘년</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>청색토끼</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2034년</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>갑인년</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>청색호랑이</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2033년</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>계축년</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>흑색소</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2032년</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>임자년</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>흑색쥐</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2031년</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>신해년</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>백색돼지</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2030년</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>경술년</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>백색개</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2029년</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>기유년</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>황색닭</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2028년</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>무신년</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>황색원숭이</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2027년</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>정미년</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>적색양</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026년</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>병오년</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>적색말</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025년</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>을사년</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>청색뱀</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024년</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>갑진년</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>청색용</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023년</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>계묘년</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>흑색토끼</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022년</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>임인년</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>흑색호랑이</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2021년</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>신축년</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>백색소</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020년</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>경자년</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>백색쥐</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2019년</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>기해년</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>황색돼지</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2018년</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>무술년</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>황색개</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2017년</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>정유년</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>적색닭</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2016년</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>병신년</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>적색원숭이</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2015년</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>을미년</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>청색양</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2014년</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>갑오년</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>청색말</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2013년</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>계사년</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>흑색뱀</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2012년</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>임진년</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>흑색용</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2011년</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>신묘년</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>백색토끼</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2010년</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>경인년</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>백색호랑이</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2009년</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>기축년</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>황색소</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2008년</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>무자년</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>황색쥐</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2007년</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>정해년</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>적색돼지</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2006년</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>병술년</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>적색개</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2005년</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>을유년</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>청색닭</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2004년</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>갑신년</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>청색원숭이</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2003년</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>계미년</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>흑색양</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2002년</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>임오년</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>흑색말</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2001년</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>신사년</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>백색뱀</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2000년</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>경진년</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>백색용</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1999년</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>기묘년</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>황색토끼</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1998년</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>무인년</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>황색호랑이</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1997년</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>정축년</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>적색소</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1996년</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>병자년</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>적색쥐</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1995년</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>을해년</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>청색돼지</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1994년</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>갑술년</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>청색개</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1993년</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>계유년</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>흑색닭</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1992년</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>임신년</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>흑색원숭이</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1991년</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>신미년</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>백색양</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1990년</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>경오년</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>백색말</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1989년</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>기사년</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>황색뱀</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1988년</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>무진년</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>황색용</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1987년</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>정묘년</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>적색토끼</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1986년</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>병인년</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>적색호랑이</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1985년</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>을축년</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>청색소</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1984년</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>갑자년</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>청색쥐</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1983년</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>계해년</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>흑색돼지</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1982년</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>임술년</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>흑색개</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1981년</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>신유년</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>백색닭</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1980년</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>경신년</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>백색원숭이</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1979년</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>기미년</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>황색양</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1978년</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>무오년</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>황색말</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1977년</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>정사년</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>적색뱀</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1976년</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>병진년</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>적색용</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1975년</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>을묘년</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>청색토끼</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1974년</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>갑인년</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>청색호랑이</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1973년</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>계축년</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>흑색소</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1972년</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>임자년</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>흑색쥐</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1971년</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>신해년</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>백색돼지</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1970년</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>경술년</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>백색개</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1969년</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>기유년</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>황색닭</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1968년</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>무신년</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>황색원숭이</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1967년</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>정미년</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>적색양</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1966년</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>병오년</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>적색말</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1965년</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>을사년</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>청색뱀</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1964년</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>갑진년</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>청색용</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1963년</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>계묘년</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>흑색토끼</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1962년</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>임인년</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>흑색호랑이</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1961년</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>신축년</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>백색소</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1960년</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>경자년</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>백색쥐</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1959년</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>기해년</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>황색돼지</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1958년</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>무술년</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>황색개</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1957년</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>정유년</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>적색닭</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1956년</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>병신년</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>적색원숭이</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1955년</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>을미년</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>청색양</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1954년</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>갑오년</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>청색말</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1953년</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>계사년</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>흑색뱀</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1952년</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>임진년</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>흑색용</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1951년</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>신묘년</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>백색토끼</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
